--- a/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBEB43-9CE1-49B8-A9DB-CE75EF370977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B85DF-BFB3-4230-83E0-0C6EED52CFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 1.5*4</t>
   </si>
 </sst>
 </file>
@@ -1846,11 +1849,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1666"/>
+  <dimension ref="A1:M1667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <pane ySplit="9" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1998,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D141,4)</f>
+        <f>RIGHT(D11:D142,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2026,7 +2029,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D142,4)</f>
+        <f>RIGHT(D12:D143,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2051,7 +2054,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D142,4)</f>
+        <f>RIGHT(D13:D143,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2075,7 +2078,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D143,4)</f>
+        <f>RIGHT(D14:D144,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2099,7 +2102,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D144,4)</f>
+        <f>RIGHT(D15:D145,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2123,7 +2126,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D144,4)</f>
+        <f>RIGHT(D16:D145,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2153,7 +2156,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D17:D146,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2179,7 +2182,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D147,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2205,7 +2208,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D148,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2229,7 +2232,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D149,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2259,7 +2262,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D150,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2289,7 +2292,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D151,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2319,7 +2322,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D152,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2349,7 +2352,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D155,4)</f>
+        <f>RIGHT(D24:D156,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2373,7 +2376,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D155,4)</f>
+        <f>RIGHT(D25:D156,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2397,7 +2400,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D156,4)</f>
+        <f>RIGHT(D26:D157,4)</f>
         <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2427,7 +2430,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D159,4)</f>
+        <f>RIGHT(D27:D160,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2457,7 +2460,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D160,4)</f>
+        <f>RIGHT(D28:D161,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2487,7 +2490,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D161,4)</f>
+        <f>RIGHT(D29:D162,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2513,7 +2516,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D162,4)</f>
+        <f>RIGHT(D30:D163,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2537,7 +2540,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D162,4)</f>
+        <f>RIGHT(D31:D163,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2567,7 +2570,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D163,4)</f>
+        <f>RIGHT(D32:D164,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2591,7 +2594,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D163,4)</f>
+        <f>RIGHT(D33:D164,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2619,7 +2622,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D165,4)</f>
+        <f>RIGHT(D34:D166,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2647,7 +2650,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D163,4)</f>
+        <f>RIGHT(D35:D164,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2677,7 +2680,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D164,4)</f>
+        <f>RIGHT(D36:D165,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2694,7 +2697,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D167,4)</f>
+        <f>RIGHT(D37:D168,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2719,7 +2722,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D168,4)</f>
+        <f>RIGHT(D38:D169,4)</f>
         <v>6869</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2744,7 +2747,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D168,4)</f>
+        <f>RIGHT(D39:D169,4)</f>
         <v>6253</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2769,7 +2772,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D167,4)</f>
+        <f>RIGHT(D40:D168,4)</f>
         <v>6602</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2794,7 +2797,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D170,4)</f>
+        <f>RIGHT(D41:D171,4)</f>
         <v>6768</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2819,7 +2822,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D171,4)</f>
+        <f>RIGHT(D42:D172,4)</f>
         <v>6770</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2844,7 +2847,7 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D174,4)</f>
+        <f>RIGHT(D43:D175,4)</f>
         <v>6829</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2868,7 +2871,7 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D179,4)</f>
+        <f>RIGHT(D44:D180,4)</f>
         <v>6854</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2892,7 +2895,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D180,4)</f>
+        <f>RIGHT(D45:D181,4)</f>
         <v>6852</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2916,7 +2919,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D180,4)</f>
+        <f>RIGHT(D46:D181,4)</f>
         <v>6853</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2940,7 +2943,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D181,4)</f>
+        <f>RIGHT(D47:D182,4)</f>
         <v>6759</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -2964,7 +2967,7 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D182,4)</f>
+        <f>RIGHT(D48:D183,4)</f>
         <v>6901</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -2990,7 +2993,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D181,4)</f>
+        <f>RIGHT(D49:D182,4)</f>
         <v>6303</v>
       </c>
       <c r="B49" s="70" t="s">
@@ -3021,7 +3024,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D182,4)</f>
+        <f>RIGHT(D50:D183,4)</f>
         <v>6777</v>
       </c>
       <c r="B50" s="70" t="s">
@@ -3046,7 +3049,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D182,4)</f>
+        <f>RIGHT(D51:D183,4)</f>
         <v>6726</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -3076,7 +3079,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D183,4)</f>
+        <f>RIGHT(D52:D184,4)</f>
         <v>6762</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -3102,7 +3105,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D183,4)</f>
+        <f>RIGHT(D53:D184,4)</f>
         <v>5820</v>
       </c>
       <c r="B53" s="45" t="s">
@@ -3126,19 +3129,19 @@
       </c>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
         <f>RIGHT(D54:D185,4)</f>
-        <v>6764</v>
+        <v>6951</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001020846764</v>
+        <v>1001022466951</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
@@ -3149,20 +3152,21 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="39"/>
+      <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D187,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D55:D186,4)</f>
+        <v>6764</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
@@ -3177,16 +3181,16 @@
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
         <f>RIGHT(D56:D188,4)</f>
-        <v>6767</v>
+        <v>6761</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
@@ -3200,22 +3204,22 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D188,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D57:D189,4)</f>
+        <v>6767</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D57" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23">
-        <f>E57*0.36</f>
+        <f>E57*1</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
@@ -3225,23 +3229,21 @@
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
         <f>RIGHT(D58:D189,4)</f>
-        <v>6909</v>
+        <v>6765</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F58" s="23"/>
       <c r="G58" s="23">
-        <f>E58*F58</f>
+        <f>E58*0.36</f>
         <v>0</v>
       </c>
       <c r="H58" s="14"/>
@@ -3250,164 +3252,165 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D188,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D59:D190,4)</f>
+        <v>6909</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001022376722</v>
+        <v>1001025766909</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G59" s="23">
-        <f>E59*0.41</f>
+        <f>E59*F59</f>
         <v>0</v>
       </c>
-      <c r="H59" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I59" s="14">
-        <v>45</v>
-      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="39"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
         <f>RIGHT(D60:D189,4)</f>
-        <v>6837</v>
+        <v>6722</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022556837</v>
+        <v>1001022376722</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G60" s="23">
-        <f>E60*0.4</f>
+        <f>E60*0.41</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="H60" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I60" s="14">
+        <v>45</v>
+      </c>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D189,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D61:D190,4)</f>
+        <v>6837</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022373812</v>
+        <v>1001022556837</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23">
-        <v>2.125</v>
+        <v>0.4</v>
       </c>
       <c r="G61" s="23">
-        <f>E61*1</f>
+        <f>E61*0.4</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I61" s="14">
-        <v>45</v>
-      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
         <f>RIGHT(D62:D190,4)</f>
-        <v>6113</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>76</v>
+        <v>3812</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23">
-        <v>1.033333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="G62" s="23">
         <f>E62*1</f>
         <v>0</v>
       </c>
       <c r="H62" s="14">
-        <v>6.2000000000000011</v>
+        <v>4.25</v>
       </c>
       <c r="I62" s="14">
         <v>45</v>
       </c>
       <c r="J62" s="39"/>
-      <c r="K62" s="82"/>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
         <f>RIGHT(D63:D191,4)</f>
-        <v>6661</v>
+        <v>6113</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="23">
+        <v>1.033333333333333</v>
+      </c>
       <c r="G63" s="23">
         <f>E63*1</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="H63" s="14">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="I63" s="14">
+        <v>45</v>
+      </c>
       <c r="J63" s="39"/>
       <c r="K63" s="82"/>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
         <f>RIGHT(D64:D192,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*0.41</f>
+        <f>E64*1</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
@@ -3415,241 +3418,242 @@
       <c r="J64" s="39"/>
       <c r="K64" s="82"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D188,4)</f>
-        <v/>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="75"/>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D65:D193,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23">
+        <f>E65*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="82"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="94" t="str">
         <f>RIGHT(D66:D189,4)</f>
+        <v/>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="94" t="str">
+        <f>RIGHT(D67:D190,4)</f>
         <v>5698</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B67" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C67" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D67" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23">
+      <c r="E67" s="24"/>
+      <c r="F67" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G66" s="23">
-        <f>E66*1</f>
+      <c r="G67" s="23">
+        <f>E67*1</f>
         <v>0</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>3.04</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>30</v>
       </c>
-      <c r="J66" s="39"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D192,4)</f>
+      <c r="J67" s="39"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="94" t="str">
+        <f>RIGHT(D68:D193,4)</f>
         <v>6528</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B68" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D68" s="28">
         <v>1001031076528</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23">
-        <f>E67*0.4</f>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23">
+        <f>E68*0.4</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="39"/>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D194,4)</f>
-        <v>6527</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="28">
-        <v>1001031076527</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23">
-        <v>1.0166666666666671</v>
-      </c>
-      <c r="G68" s="23">
-        <f>E68*1</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I68" s="14">
-        <v>30</v>
-      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="94" t="str">
         <f>RIGHT(D69:D195,4)</f>
-        <v/>
-      </c>
-      <c r="B69" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="75"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G69" s="23">
+        <f>E69*1</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I69" s="14">
+        <v>30</v>
+      </c>
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="str">
         <f>RIGHT(D70:D196,4)</f>
-        <v>6666</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="28">
-        <v>1001302276666</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G70" s="23">
-        <f>E70*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I70" s="14">
-        <v>45</v>
-      </c>
-      <c r="J70" s="39"/>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="75"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D197,4)</f>
-        <v>6785</v>
+        <v>6666</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001300516785</v>
+        <v>1001302276666</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G71" s="23">
-        <f>E71*0.33</f>
+        <f>E71*0.28</f>
         <v>0</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="H71" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I71" s="14">
+        <v>45</v>
+      </c>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
         <f>RIGHT(D72:D198,4)</f>
-        <v>6415</v>
+        <v>6785</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001303636415</v>
+        <v>1001300516785</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>F72*E72</f>
+        <f>E72*0.33</f>
         <v>0</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D198,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D73:D199,4)</f>
+        <v>6415</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001300516786</v>
+        <v>1001303636415</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G73" s="23">
-        <f>E73</f>
+        <f>F73*E73</f>
         <v>0</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
         <f>RIGHT(D74:D199,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
@@ -3661,19 +3665,19 @@
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D199,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D75:D200,4)</f>
+        <v>4903</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="28">
-        <v>1001303636794</v>
+        <v>1001040434903</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
@@ -3682,125 +3686,125 @@
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
-      <c r="I75" s="14">
-        <v>45</v>
-      </c>
+      <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D197,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D76:D200,4)</f>
+        <v>6794</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001303106773</v>
+        <v>1001303636794</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>E76*0.28</f>
+        <f>E76</f>
         <v>0</v>
       </c>
-      <c r="H76" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="14">
         <v>45</v>
       </c>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D200,4)</f>
-        <v/>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D77:D198,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1001303106773</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G77" s="23">
+        <f>E77*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I77" s="14">
+        <v>45</v>
+      </c>
+      <c r="J77" s="39"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="str">
         <f>RIGHT(D78:D201,4)</f>
+        <v/>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="94" t="str">
+        <f>RIGHT(D79:D202,4)</f>
         <v>6683</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B79" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G78" s="23">
-        <f>E78*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I78" s="14">
-        <v>45</v>
-      </c>
-      <c r="J78" s="39"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D203,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G79" s="23">
-        <f>E79*0.33</f>
+        <f>E79*0.35</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="H79" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I79" s="14">
+        <v>45</v>
+      </c>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
         <f>RIGHT(D80:D204,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
@@ -3814,17 +3818,17 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D204,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D81:D205,4)</f>
+        <v>6795</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
@@ -3838,76 +3842,76 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D204,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D82:D205,4)</f>
+        <v>6807</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="23">
-        <f>E82*0.28</f>
+        <f>E82*0.33</f>
         <v>0</v>
       </c>
-      <c r="H82" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I82" s="14">
-        <v>45</v>
-      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D206,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D83:D205,4)</f>
+        <v>6684</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001300456787</v>
+        <v>1001304506684</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G83" s="23">
-        <f>E83*0.33</f>
+        <f>E83*0.28</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I83" s="14">
+        <v>45</v>
+      </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
         <f>RIGHT(D84:D207,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23">
-        <f>E84*1</f>
+        <f>E84*0.33</f>
         <v>0</v>
       </c>
       <c r="H84" s="14"/>
@@ -3917,16 +3921,16 @@
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
         <f>RIGHT(D85:D208,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
@@ -3940,132 +3944,132 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D207,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B86" s="64" t="s">
-        <v>100</v>
+        <f>RIGHT(D86:D209,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001303986689</v>
+        <v>1001300366790</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23">
-        <f>E86*0.35</f>
+        <f>E86*1</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I86" s="14">
-        <v>45</v>
-      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
         <f>RIGHT(D87:D208,4)</f>
-        <v>6791</v>
+        <v>6689</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G87" s="23">
-        <f>E87*0.33</f>
+        <f>E87*0.35</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I87" s="14">
+        <v>45</v>
+      </c>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
         <f>RIGHT(D88:D209,4)</f>
-        <v>5341</v>
+        <v>6791</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001053985341</v>
+        <v>1001304096791</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.71250000000000002</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*1</f>
+        <f>E88*0.33</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I88" s="14">
-        <v>45</v>
-      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
         <f>RIGHT(D89:D210,4)</f>
-        <v>6459</v>
+        <v>5341</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D89" s="28">
-        <v>1001214196459</v>
+        <v>1001053985341</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.1</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G89" s="23">
-        <f>E89*F89</f>
+        <f>E89*1</f>
         <v>0</v>
       </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="H89" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I89" s="14">
+        <v>45</v>
+      </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
         <f>RIGHT(D90:D211,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G90" s="23">
-        <f>E90*0.09</f>
+        <f>E90*F90</f>
         <v>0</v>
       </c>
       <c r="H90" s="14"/>
@@ -4074,17 +4078,17 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D209,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D91:D212,4)</f>
+        <v>6586</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4098,219 +4102,213 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D209,4)</f>
+        <f>RIGHT(D92:D210,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23">
+        <f>E92*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="39"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="94" t="str">
+        <f>RIGHT(D93:D210,4)</f>
         <v>5544</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B93" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C93" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D93" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G92" s="23">
-        <f>E92*1</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I92" s="14">
-        <v>45</v>
-      </c>
-      <c r="J92" s="39"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="94" t="str">
-        <f t="shared" ref="A93:A98" si="1">RIGHT(D93:D211,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G93" s="23">
-        <f>E93*0.35</f>
+        <f>E93*1</f>
         <v>0</v>
       </c>
       <c r="H93" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I93" s="14">
         <v>45</v>
       </c>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A94:A99" si="0">RIGHT(D94:D212,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G94" s="23">
+        <f>E94*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I94" s="14">
+        <v>45</v>
+      </c>
+      <c r="J94" s="39"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="94" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B94" s="74" t="s">
+      <c r="B95" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="75"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="str">
-        <f t="shared" si="1"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="75"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="str">
+        <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B96" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G95" s="23">
-        <f>E95*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="14">
-        <v>2</v>
-      </c>
-      <c r="I95" s="14">
-        <v>120</v>
-      </c>
-      <c r="J95" s="39"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6454</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G96" s="23">
-        <f>E96*0.1</f>
+        <f>E96*0.25</f>
         <v>0</v>
       </c>
       <c r="H96" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I96" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G97" s="23">
-        <f>E97*0.09</f>
+        <f>E97*0.1</f>
         <v>0</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I97" s="14">
+        <v>60</v>
+      </c>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*0.22</f>
+        <f>E98*0.09</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I98" s="14">
-        <v>120</v>
-      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D218,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>23</v>
+        <v>112</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G99" s="23">
-        <f>E99*1</f>
+        <f>E99*0.22</f>
         <v>0</v>
       </c>
       <c r="H99" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I99" s="14">
         <v>120</v>
@@ -4320,47 +4318,51 @@
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
         <f>RIGHT(D100:D219,4)</f>
-        <v>6834</v>
+        <v>5708</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>26</v>
+        <v>113</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D100" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G100" s="23">
-        <f>E100*0.1</f>
+        <f>E100*1</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I100" s="14">
+        <v>120</v>
+      </c>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
         <f>RIGHT(D101:D220,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>F101*E101</f>
+        <f>E101*0.1</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
@@ -4370,20 +4372,20 @@
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
         <f>RIGHT(D102:D221,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G102" s="23">
         <f>F102*E102</f>
@@ -4395,21 +4397,21 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D221,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D103:D222,4)</f>
+        <v>6221</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G103" s="23">
         <f>F103*E103</f>
@@ -4421,241 +4423,241 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D223,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D104:D222,4)</f>
+        <v>5679</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.25</f>
+        <f>F104*E104</f>
         <v>0</v>
       </c>
-      <c r="H104" s="14">
-        <v>2</v>
-      </c>
-      <c r="I104" s="14">
-        <v>120</v>
-      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
         <f>RIGHT(D105:D224,4)</f>
-        <v>3684</v>
+        <v>4993</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001062353684</v>
+        <v>1001060764993</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
         <v>0.25</v>
       </c>
       <c r="G105" s="23">
-        <f>F105*E105</f>
+        <f>E105*0.25</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="H105" s="14">
+        <v>2</v>
+      </c>
+      <c r="I105" s="14">
+        <v>120</v>
+      </c>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D224,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D106:D225,4)</f>
+        <v>3684</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G106" s="23">
-        <f>E106*0.12</f>
+        <f>F106*E106</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I106" s="14">
-        <v>60</v>
-      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D227,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D107:D225,4)</f>
+        <v>5682</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G107" s="23">
-        <f>E107*1</f>
+        <f>E107*0.12</f>
         <v>0</v>
       </c>
       <c r="H107" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I107" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
         <f>RIGHT(D108:D228,4)</f>
-        <v>5483</v>
+        <v>4117</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D108" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G108" s="23">
-        <f>E108*0.25</f>
+        <f>E108*1</f>
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I108" s="14">
         <v>120</v>
       </c>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
         <f>RIGHT(D109:D229,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*0.1</f>
+        <f>E109*0.25</f>
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I109" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="str">
         <f>RIGHT(D110:D230,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G110" s="23">
+        <f>E110*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I110" s="14">
+        <v>60</v>
+      </c>
+      <c r="J110" s="39"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="94" t="str">
+        <f>RIGHT(D111:D231,4)</f>
         <v/>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="B111" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="75"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D234,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23">
-        <f>E111*1</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="39"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="75"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
         <f>RIGHT(D112:D235,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D112" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F112" s="23"/>
       <c r="G112" s="23">
-        <f>F112*E112</f>
+        <f>E112*1</f>
         <v>0</v>
       </c>
       <c r="H112" s="14"/>
@@ -4664,151 +4666,151 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D235,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D113:D236,4)</f>
+        <v>6495</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D113" s="80">
-        <v>1001095716866</v>
+        <v>1001092436495</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23"/>
+      <c r="F113" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G113" s="23">
-        <f>E113*1</f>
+        <f>F113*E113</f>
         <v>0</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D232,4)</f>
+        <f>RIGHT(D114:D236,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23">
+        <f>E114*1</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="39"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="94" t="str">
+        <f>RIGHT(D115:D233,4)</f>
         <v>3215</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B115" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C115" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D114" s="51">
+      <c r="D115" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23">
+      <c r="E115" s="24"/>
+      <c r="F115" s="23">
         <v>0.4</v>
       </c>
-      <c r="G114" s="23">
-        <f>E114*0.4</f>
+      <c r="G115" s="23">
+        <f>E115*0.4</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H115" s="14">
         <v>3.2</v>
       </c>
-      <c r="I114" s="14">
+      <c r="I115" s="14">
         <v>60</v>
       </c>
-      <c r="J114" s="39"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D235,4)</f>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="94" t="str">
+        <f>RIGHT(D116:D236,4)</f>
         <v/>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="B116" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="75"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D238,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G116" s="23">
-        <f>E116*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I116" s="14">
-        <v>30</v>
-      </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="75"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
         <f>RIGHT(D117:D239,4)</f>
-        <v>4691</v>
+        <v>6206</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001083424691</v>
+        <v>1001084216206</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
         <v>0.3</v>
       </c>
       <c r="G117" s="23">
-        <f t="shared" ref="G117:G123" si="2">F117*E117</f>
+        <f>E117*0.3</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="93"/>
+      <c r="H117" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I117" s="14">
+        <v>30</v>
+      </c>
+      <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
         <f>RIGHT(D118:D240,4)</f>
-        <v>6200</v>
+        <v>4691</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
         <v>0.3</v>
       </c>
       <c r="G118" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G118:G124" si="1">F118*E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
@@ -4818,23 +4820,23 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
         <f>RIGHT(D119:D241,4)</f>
-        <v>6842</v>
+        <v>6200</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001080216842</v>
+        <v>1001085636200</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
         <v>0.3</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4843,24 +4845,24 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D241,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D120:D242,4)</f>
+        <v>6842</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
         <v>0.3</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4869,24 +4871,24 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D239,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D121:D242,4)</f>
+        <v>6492</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4896,23 +4898,23 @@
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
         <f>RIGHT(D122:D240,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4922,77 +4924,86 @@
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
         <f>RIGHT(D123:D241,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C123" s="33" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
-      <c r="J123" s="39"/>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J123" s="93"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D239,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B124" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="35" t="s">
+        <f>RIGHT(D124:D242,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001223296919</v>
+        <v>1001223296921</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="23"/>
+      <c r="F124" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G124" s="23">
-        <f>E124*0.18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
-      <c r="J124" s="93"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D240,4)</f>
-        <v/>
-      </c>
-      <c r="B125" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
-      <c r="J125" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
+        <f>E125*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="93"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D243,4)</f>
+        <f>RIGHT(D126:D241,4)</f>
         <v/>
       </c>
       <c r="B126" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126" s="74"/>
       <c r="D126" s="74"/>
@@ -5003,73 +5014,66 @@
       <c r="I126" s="74"/>
       <c r="J126" s="75"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
         <f>RIGHT(D127:D244,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B127" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G127" s="23">
-        <f>E127*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="14">
-        <v>8</v>
-      </c>
-      <c r="I127" s="72">
-        <v>120</v>
-      </c>
-      <c r="J127" s="39"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="75"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
         <f>RIGHT(D128:D245,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G128" s="23">
-        <f>E128*0.45</f>
+        <f>E128*0.5</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="72"/>
+      <c r="H128" s="14">
+        <v>8</v>
+      </c>
+      <c r="I128" s="72">
+        <v>120</v>
+      </c>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
         <f>RIGHT(D129:D246,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23"/>
@@ -5081,174 +5085,168 @@
       <c r="I129" s="72"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
-        <f t="shared" ref="A130:A141" si="3">RIGHT(D130:D245,4)</f>
+        <f>RIGHT(D130:D247,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23">
+        <f>E130*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="39"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="94" t="str">
+        <f t="shared" ref="A131:A142" si="2">RIGHT(D131:D246,4)</f>
         <v>6313</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B131" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C131" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="28">
+      <c r="D131" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="23">
+      <c r="E131" s="24"/>
+      <c r="F131" s="23">
         <v>0.9</v>
       </c>
-      <c r="G130" s="23">
-        <f>E130*0.9</f>
+      <c r="G131" s="23">
+        <f>E131*0.9</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H131" s="14">
         <v>9</v>
       </c>
-      <c r="I130" s="72">
+      <c r="I131" s="72">
         <v>120</v>
       </c>
-      <c r="J130" s="39"/>
-    </row>
-    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B131" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
+      <c r="J131" s="39"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>4945</v>
-      </c>
-      <c r="B132" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C132" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G132" s="23">
-        <f>E132*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="14">
-        <v>8</v>
-      </c>
-      <c r="I132" s="72">
-        <v>120</v>
-      </c>
-      <c r="J132" s="39"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B132" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="75"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G133" s="23">
+        <f>E133*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <v>8</v>
+      </c>
+      <c r="I133" s="72">
+        <v>120</v>
+      </c>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="94" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B133" s="74" t="s">
+      <c r="B134" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="75"/>
-    </row>
-    <row r="134" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="94" t="str">
-        <f t="shared" si="3"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
+    </row>
+    <row r="135" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>4956</v>
       </c>
-      <c r="B134" s="89" t="s">
+      <c r="B135" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="C134" s="90" t="s">
+      <c r="C135" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="83">
+      <c r="D135" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E134" s="84"/>
-      <c r="F134" s="85">
+      <c r="E135" s="84"/>
+      <c r="F135" s="85">
         <v>0.42</v>
       </c>
-      <c r="G134" s="85">
-        <f>E134*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I134" s="91">
-        <v>120</v>
-      </c>
-      <c r="J134" s="86"/>
-      <c r="K134" s="87"/>
-    </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B135" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G135" s="23">
+      <c r="G135" s="85">
         <f>E135*0.42</f>
         <v>0</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H135" s="86">
         <v>4.2</v>
       </c>
-      <c r="I135" s="72">
+      <c r="I135" s="91">
         <v>120</v>
       </c>
-      <c r="J135" s="39"/>
-    </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J135" s="86"/>
+      <c r="K135" s="87"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f t="shared" si="2"/>
+        <v>1762</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
@@ -5266,30 +5264,43 @@
       </c>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B137" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="75"/>
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G137" s="23">
+        <f>E137*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I137" s="72">
+        <v>120</v>
+      </c>
+      <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B138" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138" s="74"/>
       <c r="D138" s="74"/>
@@ -5302,131 +5313,138 @@
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B139" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="75"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>6004</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="B140" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C140" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D139" s="68" t="s">
+      <c r="D140" s="68" t="s">
         <v>154</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>1</v>
-      </c>
-      <c r="G139" s="23">
-        <f>E139*1</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="14">
-        <v>8</v>
-      </c>
-      <c r="I139" s="72">
-        <v>120</v>
-      </c>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>5417</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="68" t="s">
-        <v>156</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" s="23">
         <f>E140*1</f>
         <v>0</v>
       </c>
       <c r="H140" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I140" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94" t="str">
-        <f t="shared" si="3"/>
-        <v>6019</v>
+        <f t="shared" si="2"/>
+        <v>5417</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141" s="23">
         <f>E141*1</f>
         <v>0</v>
       </c>
       <c r="H141" s="14">
+        <v>6</v>
+      </c>
+      <c r="I141" s="72">
+        <v>90</v>
+      </c>
+      <c r="J141" s="39"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23">
+        <v>1</v>
+      </c>
+      <c r="G142" s="23">
+        <f>E142*1</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="14">
         <v>12</v>
       </c>
-      <c r="I141" s="72">
+      <c r="I142" s="72">
         <v>120</v>
       </c>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="77"/>
-      <c r="B142" s="77" t="s">
+      <c r="J142" s="39"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="77"/>
+      <c r="B143" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="17">
-        <f>SUM(E5:E141)</f>
+      <c r="C143" s="16"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="17">
+        <f>SUM(E5:E142)</f>
         <v>0</v>
       </c>
-      <c r="F142" s="17">
-        <f>SUM(F10:F141)</f>
+      <c r="F143" s="17">
+        <f>SUM(F10:F142)</f>
         <v>39.534166666666671</v>
       </c>
-      <c r="G142" s="17">
-        <f>SUM(G11:G141)</f>
+      <c r="G143" s="17">
+        <f>SUM(G11:G142)</f>
         <v>0</v>
       </c>
-      <c r="H142" s="17">
-        <f>SUM(H10:H138)</f>
+      <c r="H143" s="17">
+        <f>SUM(H10:H139)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="53"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="52"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="21"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B144" s="53"/>
       <c r="C144" s="18"/>
       <c r="D144" s="52"/>
@@ -20656,17 +20674,27 @@
       <c r="I1666" s="20"/>
       <c r="J1666" s="21"/>
     </row>
+    <row r="1667" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1667" s="53"/>
+      <c r="C1667" s="18"/>
+      <c r="D1667" s="52"/>
+      <c r="F1667" s="19"/>
+      <c r="G1667" s="19"/>
+      <c r="H1667" s="20"/>
+      <c r="I1667" s="20"/>
+      <c r="J1667" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B135" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B136" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D139:D141" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D140:D142" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B85DF-BFB3-4230-83E0-0C6EED52CFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4FDFE-C1B6-4C4A-83B2-C0049B47611D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$144</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="216">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о в/у 1/350</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1*6</t>
   </si>
   <si>
     <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</t>
@@ -671,6 +668,18 @@
   </si>
   <si>
     <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 1.5*4</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ Папа может сос п/о мгс 1.5*4_А</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
   </si>
 </sst>
 </file>
@@ -1849,11 +1858,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1667"/>
+  <dimension ref="A1:M1668"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+      <pane ySplit="9" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2007,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D142,4)</f>
+        <f>RIGHT(D11:D143,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2029,7 +2038,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D143,4)</f>
+        <f>RIGHT(D12:D144,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2054,7 +2063,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D143,4)</f>
+        <f>RIGHT(D13:D144,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2078,7 +2087,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D144,4)</f>
+        <f>RIGHT(D14:D145,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2102,7 +2111,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D145,4)</f>
+        <f>RIGHT(D15:D146,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2126,7 +2135,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D145,4)</f>
+        <f>RIGHT(D16:D146,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2156,7 +2165,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D146,4)</f>
+        <f>RIGHT(D17:D147,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2182,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D147,4)</f>
+        <f>RIGHT(D18:D148,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2208,7 +2217,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D148,4)</f>
+        <f>RIGHT(D19:D149,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2232,7 +2241,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D149,4)</f>
+        <f>RIGHT(D20:D150,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2262,7 +2271,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D150,4)</f>
+        <f>RIGHT(D21:D151,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2292,7 +2301,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D151,4)</f>
+        <f>RIGHT(D22:D152,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2322,7 +2331,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D152,4)</f>
+        <f>RIGHT(D23:D153,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2352,7 +2361,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D156,4)</f>
+        <f>RIGHT(D24:D157,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2376,7 +2385,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D156,4)</f>
+        <f>RIGHT(D25:D157,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2400,7 +2409,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D157,4)</f>
+        <f>RIGHT(D26:D158,4)</f>
         <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2430,7 +2439,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D160,4)</f>
+        <f>RIGHT(D27:D161,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2460,7 +2469,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D161,4)</f>
+        <f>RIGHT(D28:D162,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2490,7 +2499,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D162,4)</f>
+        <f>RIGHT(D29:D163,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2516,7 +2525,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D163,4)</f>
+        <f>RIGHT(D30:D164,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2540,7 +2549,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D163,4)</f>
+        <f>RIGHT(D31:D164,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2570,7 +2579,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D164,4)</f>
+        <f>RIGHT(D32:D165,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2594,7 +2603,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D164,4)</f>
+        <f>RIGHT(D33:D165,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2622,7 +2631,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D166,4)</f>
+        <f>RIGHT(D34:D167,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2650,7 +2659,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D164,4)</f>
+        <f>RIGHT(D35:D165,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2680,7 +2689,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D165,4)</f>
+        <f>RIGHT(D36:D166,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2697,7 +2706,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D168,4)</f>
+        <f>RIGHT(D37:D169,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2722,7 +2731,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D169,4)</f>
+        <f>RIGHT(D38:D170,4)</f>
         <v>6869</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2747,17 +2756,17 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D169,4)</f>
-        <v>6253</v>
+        <f>RIGHT(D39:D171,4)</f>
+        <v>6948</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="28">
-        <v>1001020836253</v>
+        <v>1001022656948</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="23"/>
@@ -2772,22 +2781,22 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D168,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D40:D172,4)</f>
+        <v>6955</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>26</v>
+        <v>213</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D40" s="28">
-        <v>1001021966602</v>
+        <v>1001022376955</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>E40*0.35</f>
+        <f>E40</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -2797,22 +2806,22 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D171,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D41:D170,4)</f>
+        <v>6253</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001025176768</v>
+        <v>1001020836253</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23">
-        <f>E41*0.41</f>
+        <f>E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -2822,22 +2831,22 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D172,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D42:D169,4)</f>
+        <v>6602</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="28">
-        <v>1001025486770</v>
+        <v>1001021966602</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23">
-        <f>E42*0.41</f>
+        <f>E42*0.35</f>
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -2845,72 +2854,74 @@
       <c r="J42" s="39"/>
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D175,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D43:D172,4)</f>
+        <v>6768</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D43" s="28">
-        <v>1001024976829</v>
+        <v>1001025176768</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43*1</f>
+        <f>E43*0.41</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="82"/>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D180,4)</f>
-        <v>6854</v>
+        <f>RIGHT(D44:D173,4)</f>
+        <v>6770</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="28">
-        <v>1001022656854</v>
+        <v>1001025486770</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23">
-        <f>E44*0.6</f>
+        <f>E44*0.41</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="39"/>
+      <c r="K44" s="82"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D181,4)</f>
-        <v>6852</v>
+        <f>RIGHT(D45:D176,4)</f>
+        <v>6829</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D45" s="28">
-        <v>1001022656852</v>
+        <v>1001024976829</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23">
-        <f>E45*0.35</f>
+        <f>E45*1</f>
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
@@ -2920,21 +2931,21 @@
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
         <f>RIGHT(D46:D181,4)</f>
-        <v>6853</v>
+        <v>6854</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D46" s="28">
-        <v>1001022656853</v>
+        <v>1001022656854</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23">
-        <f>E46*1</f>
+        <f>E46*0.6</f>
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
@@ -2944,21 +2955,21 @@
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
         <f>RIGHT(D47:D182,4)</f>
-        <v>6759</v>
+        <v>6852</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="28">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*0.4</f>
+        <f>E47*0.35</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
@@ -2968,180 +2979,178 @@
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
         <f>RIGHT(D48:D183,4)</f>
-        <v>6901</v>
+        <v>6759</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D48" s="28">
-        <v>1001025526901</v>
+        <v>1001020836759</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="23">
-        <v>0.16</v>
-      </c>
+      <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*F48</f>
+        <f>E48*0.4</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D182,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>63</v>
+        <f>RIGHT(D49:D184,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D49" s="28">
-        <v>1001022726303</v>
+        <v>1001025526901</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G49" s="23">
-        <f>E49*1</f>
+        <f>E49*F49</f>
         <v>0</v>
       </c>
-      <c r="H49" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I49" s="14">
-        <v>45</v>
-      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="82"/>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
         <f>RIGHT(D50:D183,4)</f>
-        <v>6777</v>
+        <v>6303</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="28">
-        <v>1001025506777</v>
+        <v>1001022726303</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G50" s="23">
-        <f>E50*0.4</f>
+        <f>E50*1</f>
         <v>0</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="H50" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I50" s="14">
+        <v>45</v>
+      </c>
       <c r="J50" s="39"/>
       <c r="K50" s="82"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D183,4)</f>
-        <v>6726</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>65</v>
+        <f>RIGHT(D51:D184,4)</f>
+        <v>6777</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>63</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="28">
-        <v>1001022466726</v>
+        <v>1001025506777</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>E51*0.41</f>
+        <f>E51*0.4</f>
         <v>0</v>
       </c>
-      <c r="H51" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I51" s="14">
-        <v>45</v>
-      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="39"/>
+      <c r="K51" s="82"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
         <f>RIGHT(D52:D184,4)</f>
-        <v>6762</v>
+        <v>6726</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="28">
-        <v>1001020846762</v>
+        <v>1001022466726</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G52" s="23">
-        <f>E52*F52</f>
+        <f>E52*0.41</f>
         <v>0</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H52" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I52" s="14">
+        <v>45</v>
+      </c>
       <c r="J52" s="39"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D184,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D53:D185,4)</f>
+        <v>6762</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G53" s="23">
-        <f>E53*1</f>
+        <f>E53*F53</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="14">
-        <v>45</v>
-      </c>
+      <c r="I53" s="14"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
         <f>RIGHT(D54:D185,4)</f>
-        <v>6951</v>
+        <v>5820</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001022466951</v>
+        <v>1001022465820</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
@@ -3150,23 +3159,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="14">
+        <v>45</v>
+      </c>
       <c r="J54" s="39"/>
-      <c r="K54" s="82"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
         <f>RIGHT(D55:D186,4)</f>
-        <v>6764</v>
+        <v>6951</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="28">
-        <v>1001020846764</v>
+        <v>1001022466951</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
@@ -3177,20 +3187,21 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="39"/>
+      <c r="K55" s="82"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D188,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D56:D187,4)</f>
+        <v>6764</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
@@ -3205,16 +3216,16 @@
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
         <f>RIGHT(D57:D189,4)</f>
-        <v>6767</v>
+        <v>6761</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
@@ -3228,22 +3239,22 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D189,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D58:D190,4)</f>
+        <v>6767</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23">
-        <f>E58*0.36</f>
+        <f>E58*1</f>
         <v>0</v>
       </c>
       <c r="H58" s="14"/>
@@ -3253,23 +3264,21 @@
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
         <f>RIGHT(D59:D190,4)</f>
-        <v>6909</v>
+        <v>6765</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F59" s="23"/>
       <c r="G59" s="23">
-        <f>E59*F59</f>
+        <f>E59*0.36</f>
         <v>0</v>
       </c>
       <c r="H59" s="14"/>
@@ -3278,94 +3287,90 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D189,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D60:D191,4)</f>
+        <v>6909</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022376722</v>
+        <v>1001025766909</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G60" s="23">
-        <f>E60*0.41</f>
+        <f>E60*F60</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
         <f>RIGHT(D61:D190,4)</f>
-        <v>6837</v>
+        <v>6722</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022556837</v>
+        <v>1001022376722</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G61" s="23">
-        <f>E61*0.4</f>
+        <f>E61*0.41</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="H61" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D190,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D62:D191,4)</f>
+        <v>6837</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>23</v>
+        <v>73</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D62" s="28">
-        <v>1001022373812</v>
+        <v>1001022556837</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23">
-        <v>2.125</v>
+        <v>0.4</v>
       </c>
       <c r="G62" s="23">
-        <f>E62*1</f>
+        <f>E62*0.4</f>
         <v>0</v>
       </c>
-      <c r="H62" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I62" s="14">
-        <v>45</v>
-      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D191,4)</f>
-        <v>6113</v>
+        <f>RIGHT(D63:D193,4)</f>
+        <v>6661</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>76</v>
@@ -3374,43 +3379,37 @@
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001022376113</v>
+        <v>1001022246661</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23">
-        <v>1.033333333333333</v>
-      </c>
+      <c r="F63" s="23"/>
       <c r="G63" s="23">
         <f>E63*1</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14">
-        <v>6.2000000000000011</v>
-      </c>
-      <c r="I63" s="14">
-        <v>45</v>
-      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="39"/>
       <c r="K63" s="82"/>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D192,4)</f>
-        <v>6661</v>
+        <f>RIGHT(D64:D194,4)</f>
+        <v>6713</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>23</v>
+      <c r="C64" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*1</f>
+        <f>E64*0.41</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
@@ -3418,223 +3417,226 @@
       <c r="J64" s="39"/>
       <c r="K64" s="82"/>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D193,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B65" s="27" t="s">
+        <f>RIGHT(D65:D190,4)</f>
+        <v/>
+      </c>
+      <c r="B65" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="28">
-        <v>1001022246713</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23">
-        <f>E65*0.41</f>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="75"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="94" t="str">
+        <f>RIGHT(D66:D191,4)</f>
+        <v>5698</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="28">
+        <v>1001034065698</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="G66" s="23">
+        <f>E66*1</f>
         <v>0</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="82"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D189,4)</f>
-        <v/>
-      </c>
-      <c r="B66" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I66" s="14">
+        <v>30</v>
+      </c>
+      <c r="J66" s="39"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D190,4)</f>
-        <v>5698</v>
+        <f>RIGHT(D67:D194,4)</f>
+        <v>6528</v>
       </c>
       <c r="B67" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>23</v>
+      <c r="C67" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D67" s="28">
-        <v>1001034065698</v>
+        <v>1001031076528</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="23">
-        <v>1.013333333333333</v>
-      </c>
+      <c r="F67" s="23"/>
       <c r="G67" s="23">
-        <f>E67*1</f>
+        <f>E67*0.4</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I67" s="14">
-        <v>30</v>
-      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D193,4)</f>
-        <v>6528</v>
+        <f>RIGHT(D68:D195,4)</f>
+        <v>6653</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001031076528</v>
+        <v>1001035276653</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G68" s="23">
-        <f>E68*0.4</f>
+        <f>F68*E68</f>
         <v>0</v>
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="39"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="82"/>
+    </row>
+    <row r="69" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
         <f>RIGHT(D69:D195,4)</f>
-        <v>6527</v>
+        <v>6609</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>23</v>
+        <v>214</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001031076527</v>
+        <v>1001033856609</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
-        <v>1.0166666666666671</v>
+        <v>0.4</v>
       </c>
       <c r="G69" s="23">
-        <f>E69*1</f>
+        <f>F69*E69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I69" s="14">
-        <v>30</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K69" s="82"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="str">
         <f>RIGHT(D70:D196,4)</f>
-        <v/>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="75"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G70" s="23">
+        <f>E70*1</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I70" s="14">
+        <v>30</v>
+      </c>
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D197,4)</f>
-        <v>6666</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="28">
-        <v>1001302276666</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G71" s="23">
-        <f>E71*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I71" s="14">
-        <v>45</v>
-      </c>
-      <c r="J71" s="39"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B71" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="75"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
         <f>RIGHT(D72:D198,4)</f>
-        <v>6785</v>
+        <v>6666</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001300516785</v>
+        <v>1001302276666</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G72" s="23">
-        <f>E72*0.33</f>
+        <f>E72*0.28</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I72" s="14">
+        <v>45</v>
+      </c>
       <c r="J72" s="39"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
         <f>RIGHT(D73:D199,4)</f>
-        <v>6415</v>
+        <v>6785</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001303636415</v>
+        <v>1001300516785</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F73" s="23"/>
       <c r="G73" s="23">
-        <f>F73*E73</f>
+        <f>E73*0.33</f>
         <v>0</v>
       </c>
       <c r="H73" s="14"/>
@@ -3643,22 +3645,24 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D199,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D74:D200,4)</f>
+        <v>6415</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D74" s="28">
-        <v>1001300516786</v>
+        <v>1001303636415</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G74" s="23">
-        <f>E74</f>
+        <f>F74*E74</f>
         <v>0</v>
       </c>
       <c r="H74" s="14"/>
@@ -3668,16 +3672,16 @@
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
         <f>RIGHT(D75:D200,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
@@ -3691,17 +3695,17 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D200,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D76:D201,4)</f>
+        <v>4903</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001303636794</v>
+        <v>1001040434903</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
@@ -3710,125 +3714,125 @@
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
-      <c r="I76" s="14">
-        <v>45</v>
-      </c>
+      <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D198,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D77:D201,4)</f>
+        <v>6794</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77" s="28">
-        <v>1001303106773</v>
+        <v>1001303636794</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>E77*0.28</f>
+        <f>E77</f>
         <v>0</v>
       </c>
-      <c r="H77" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H77" s="14"/>
       <c r="I77" s="14">
         <v>45</v>
       </c>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D201,4)</f>
-        <v/>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D78:D199,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="28">
+        <v>1001303106773</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G78" s="23">
+        <f>E78*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I78" s="14">
+        <v>45</v>
+      </c>
+      <c r="J78" s="39"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="str">
         <f>RIGHT(D79:D202,4)</f>
+        <v/>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="75"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="94" t="str">
+        <f>RIGHT(D80:D203,4)</f>
         <v>6683</v>
       </c>
-      <c r="B79" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G79" s="23">
-        <f>E79*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I79" s="14">
-        <v>45</v>
-      </c>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D204,4)</f>
-        <v>6793</v>
-      </c>
       <c r="B80" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G80" s="23">
-        <f>E80*0.33</f>
+        <f>E80*0.35</f>
         <v>0</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="H80" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I80" s="14">
+        <v>45</v>
+      </c>
       <c r="J80" s="39"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
         <f>RIGHT(D81:D205,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
@@ -3842,17 +3846,17 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D205,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D82:D206,4)</f>
+        <v>6795</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="23"/>
@@ -3866,76 +3870,76 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D205,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D83:D206,4)</f>
+        <v>6807</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F83" s="23"/>
       <c r="G83" s="23">
-        <f>E83*0.28</f>
+        <f>E83*0.33</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I83" s="14">
-        <v>45</v>
-      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D207,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D84:D206,4)</f>
+        <v>6684</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001300456787</v>
+        <v>1001304506684</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23"/>
+      <c r="F84" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G84" s="23">
-        <f>E84*0.33</f>
+        <f>E84*0.28</f>
         <v>0</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="H84" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I84" s="14">
+        <v>45</v>
+      </c>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
         <f>RIGHT(D85:D208,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D85" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23">
-        <f>E85*1</f>
+        <f>E85*0.33</f>
         <v>0</v>
       </c>
       <c r="H85" s="14"/>
@@ -3945,16 +3949,16 @@
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
         <f>RIGHT(D86:D209,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
@@ -3968,132 +3972,132 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D208,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B87" s="64" t="s">
-        <v>100</v>
+        <f>RIGHT(D87:D210,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D87" s="28">
-        <v>1001303986689</v>
+        <v>1001300366790</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>E87*0.35</f>
+        <f>E87*1</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I87" s="14">
-        <v>45</v>
-      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
         <f>RIGHT(D88:D209,4)</f>
-        <v>6791</v>
+        <v>6689</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G88" s="23">
-        <f>E88*0.33</f>
+        <f>E88*0.35</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="H88" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I88" s="14">
+        <v>45</v>
+      </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
         <f>RIGHT(D89:D210,4)</f>
-        <v>5341</v>
+        <v>6791</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001053985341</v>
+        <v>1001304096791</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23">
-        <v>0.71250000000000002</v>
-      </c>
+      <c r="F89" s="23"/>
       <c r="G89" s="23">
-        <f>E89*1</f>
+        <f>E89*0.33</f>
         <v>0</v>
       </c>
-      <c r="H89" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I89" s="14">
-        <v>45</v>
-      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
         <f>RIGHT(D90:D211,4)</f>
-        <v>6459</v>
+        <v>5341</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001214196459</v>
+        <v>1001053985341</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.1</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*F90</f>
+        <f>E90*1</f>
         <v>0</v>
       </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I90" s="14">
+        <v>45</v>
+      </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
         <f>RIGHT(D91:D212,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G91" s="23">
-        <f>E91*0.09</f>
+        <f>E91*F91</f>
         <v>0</v>
       </c>
       <c r="H91" s="14"/>
@@ -4102,17 +4106,17 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D210,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D92:D213,4)</f>
+        <v>6586</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4126,219 +4130,213 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D210,4)</f>
+        <f>RIGHT(D93:D211,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23">
+        <f>E93*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="39"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="94" t="str">
+        <f>RIGHT(D94:D211,4)</f>
         <v>5544</v>
       </c>
-      <c r="B93" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="30" t="s">
+      <c r="B94" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D94" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G93" s="23">
-        <f>E93*1</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I93" s="14">
-        <v>45</v>
-      </c>
-      <c r="J93" s="39"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="94" t="str">
-        <f t="shared" ref="A94:A99" si="0">RIGHT(D94:D212,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G94" s="23">
-        <f>E94*0.35</f>
+        <f>E94*1</f>
         <v>0</v>
       </c>
       <c r="H94" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I94" s="14">
         <v>45</v>
       </c>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="94" t="str">
+        <f t="shared" ref="A95:A100" si="0">RIGHT(D95:D213,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G95" s="23">
+        <f>E95*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I95" s="14">
+        <v>45</v>
+      </c>
+      <c r="J95" s="39"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B95" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="75"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="str">
+      <c r="B96" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="75"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="94" t="str">
         <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B96" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G96" s="23">
-        <f>E96*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14">
-        <v>2</v>
-      </c>
-      <c r="I96" s="14">
-        <v>120</v>
-      </c>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
       <c r="B97" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G97" s="23">
-        <f>E97*0.1</f>
+        <f>E97*0.25</f>
         <v>0</v>
       </c>
       <c r="H97" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I97" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6222</v>
+        <v>6454</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G98" s="23">
-        <f>E98*0.09</f>
+        <f>E98*0.1</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="H98" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I98" s="14">
+        <v>60</v>
+      </c>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>5931</v>
+        <v>6222</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*0.22</f>
+        <f>E99*0.09</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I99" s="14">
-        <v>120</v>
-      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D219,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G100" s="23">
-        <f>E100*1</f>
+        <f>E100*0.22</f>
         <v>0</v>
       </c>
       <c r="H100" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I100" s="14">
         <v>120</v>
@@ -4348,47 +4346,51 @@
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
         <f>RIGHT(D101:D220,4)</f>
-        <v>6834</v>
+        <v>5708</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D101" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G101" s="23">
-        <f>E101*0.1</f>
+        <f>E101*1</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I101" s="14">
+        <v>120</v>
+      </c>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
         <f>RIGHT(D102:D221,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F102" s="23"/>
       <c r="G102" s="23">
-        <f>F102*E102</f>
+        <f>E102*0.1</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4398,20 +4400,20 @@
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
         <f>RIGHT(D103:D222,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G103" s="23">
         <f>F103*E103</f>
@@ -4423,21 +4425,21 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D222,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D104:D223,4)</f>
+        <v>6221</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G104" s="23">
         <f>F104*E104</f>
@@ -4449,241 +4451,241 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D224,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D105:D223,4)</f>
+        <v>5679</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G105" s="23">
-        <f>E105*0.25</f>
+        <f>F105*E105</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14">
-        <v>2</v>
-      </c>
-      <c r="I105" s="14">
-        <v>120</v>
-      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
         <f>RIGHT(D106:D225,4)</f>
-        <v>3684</v>
+        <v>4993</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001062353684</v>
+        <v>1001060764993</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="23">
         <v>0.25</v>
       </c>
       <c r="G106" s="23">
-        <f>F106*E106</f>
+        <f>E106*0.25</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="H106" s="14">
+        <v>2</v>
+      </c>
+      <c r="I106" s="14">
+        <v>120</v>
+      </c>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D225,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D107:D226,4)</f>
+        <v>3684</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G107" s="23">
-        <f>E107*0.12</f>
+        <f>F107*E107</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I107" s="14">
-        <v>60</v>
-      </c>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D228,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D108:D226,4)</f>
+        <v>5682</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>23</v>
+        <v>119</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G108" s="23">
-        <f>E108*1</f>
+        <f>E108*0.12</f>
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I108" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
         <f>RIGHT(D109:D229,4)</f>
-        <v>5483</v>
+        <v>4117</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D109" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*0.25</f>
+        <f>E109*1</f>
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I109" s="14">
         <v>120</v>
       </c>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
         <f>RIGHT(D110:D230,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*0.1</f>
+        <f>E110*0.25</f>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I110" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="94" t="str">
         <f>RIGHT(D111:D231,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G111" s="23">
+        <f>E111*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I111" s="14">
+        <v>60</v>
+      </c>
+      <c r="J111" s="39"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="94" t="str">
+        <f>RIGHT(D112:D232,4)</f>
         <v/>
       </c>
-      <c r="B111" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="75"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D235,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23">
-        <f>E112*1</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="39"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="75"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
         <f>RIGHT(D113:D236,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D113" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="23">
-        <f>F113*E113</f>
+        <f>E113*1</f>
         <v>0</v>
       </c>
       <c r="H113" s="14"/>
@@ -4692,151 +4694,151 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D236,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D114:D237,4)</f>
+        <v>6495</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D114" s="80">
-        <v>1001095716866</v>
+        <v>1001092436495</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G114" s="23">
-        <f>E114*1</f>
+        <f>F114*E114</f>
         <v>0</v>
       </c>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D233,4)</f>
+        <f>RIGHT(D115:D237,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23">
+        <f>E115*1</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="94" t="str">
+        <f>RIGHT(D116:D234,4)</f>
         <v>3215</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B116" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G116" s="23">
+        <f>E116*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I116" s="14">
+        <v>60</v>
+      </c>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="94" t="str">
+        <f>RIGHT(D117:D237,4)</f>
+        <v/>
+      </c>
+      <c r="B117" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="51">
-        <v>1001094053215</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="G115" s="23">
-        <f>E115*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I115" s="14">
-        <v>60</v>
-      </c>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D236,4)</f>
-        <v/>
-      </c>
-      <c r="B116" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="74"/>
-      <c r="I116" s="74"/>
-      <c r="J116" s="75"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D239,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B117" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G117" s="23">
-        <f>E117*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I117" s="14">
-        <v>30</v>
-      </c>
-      <c r="J117" s="39"/>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="75"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
         <f>RIGHT(D118:D240,4)</f>
-        <v>4691</v>
+        <v>6206</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001083424691</v>
+        <v>1001084216206</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
         <v>0.3</v>
       </c>
       <c r="G118" s="23">
-        <f t="shared" ref="G118:G124" si="1">F118*E118</f>
+        <f>E118*0.3</f>
         <v>0</v>
       </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="93"/>
+      <c r="H118" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I118" s="14">
+        <v>30</v>
+      </c>
+      <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
         <f>RIGHT(D119:D241,4)</f>
-        <v>6200</v>
+        <v>4691</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
         <v>0.3</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G119:G125" si="1">F119*E119</f>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4846,16 +4848,16 @@
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
         <f>RIGHT(D120:D242,4)</f>
-        <v>6842</v>
+        <v>6200</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001080216842</v>
+        <v>1001085636200</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
@@ -4871,17 +4873,17 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D242,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D121:D243,4)</f>
+        <v>6842</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C121" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
@@ -4897,21 +4899,21 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D240,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D122:D243,4)</f>
+        <v>6492</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G122" s="23">
         <f t="shared" si="1"/>
@@ -4924,20 +4926,20 @@
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
         <f>RIGHT(D123:D241,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C123" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G123" s="23">
         <f t="shared" si="1"/>
@@ -4950,20 +4952,20 @@
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
         <f>RIGHT(D124:D242,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="33" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G124" s="23">
         <f t="shared" si="1"/>
@@ -4971,56 +4973,65 @@
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
-      <c r="J124" s="39"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="93"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
-        <f>RIGHT(D125:D240,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="35" t="s">
+        <f>RIGHT(D125:D243,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001223296919</v>
+        <v>1001223296921</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="23"/>
+      <c r="F125" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G125" s="23">
-        <f>E125*0.18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
-      <c r="J125" s="93"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="94" t="str">
         <f>RIGHT(D126:D241,4)</f>
-        <v/>
-      </c>
-      <c r="B126" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="74"/>
-      <c r="I126" s="74"/>
-      <c r="J126" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23">
+        <f>E126*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="93"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D244,4)</f>
+        <f>RIGHT(D127:D242,4)</f>
         <v/>
       </c>
       <c r="B127" s="74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C127" s="74"/>
       <c r="D127" s="74"/>
@@ -5031,73 +5042,66 @@
       <c r="I127" s="74"/>
       <c r="J127" s="75"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="94" t="str">
         <f>RIGHT(D128:D245,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B128" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G128" s="23">
-        <f>E128*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="14">
-        <v>8</v>
-      </c>
-      <c r="I128" s="72">
-        <v>120</v>
-      </c>
-      <c r="J128" s="39"/>
-    </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B128" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="74"/>
+      <c r="H128" s="74"/>
+      <c r="I128" s="74"/>
+      <c r="J128" s="75"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
         <f>RIGHT(D129:D246,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="23"/>
+      <c r="F129" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G129" s="23">
-        <f>E129*0.45</f>
+        <f>E129*0.5</f>
         <v>0</v>
       </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="72"/>
+      <c r="H129" s="14">
+        <v>8</v>
+      </c>
+      <c r="I129" s="72">
+        <v>120</v>
+      </c>
       <c r="J129" s="39"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
         <f>RIGHT(D130:D247,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23"/>
@@ -5109,174 +5113,168 @@
       <c r="I130" s="72"/>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f t="shared" ref="A131:A142" si="2">RIGHT(D131:D246,4)</f>
+        <f>RIGHT(D131:D248,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23">
+        <f>E131*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="94" t="str">
+        <f t="shared" ref="A132:A143" si="2">RIGHT(D132:D247,4)</f>
         <v>6313</v>
       </c>
-      <c r="B131" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" s="36" t="s">
+      <c r="B132" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="28">
+      <c r="D132" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="23">
+      <c r="E132" s="24"/>
+      <c r="F132" s="23">
         <v>0.9</v>
       </c>
-      <c r="G131" s="23">
-        <f>E131*0.9</f>
+      <c r="G132" s="23">
+        <f>E132*0.9</f>
         <v>0</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H132" s="14">
         <v>9</v>
       </c>
-      <c r="I131" s="72">
+      <c r="I132" s="72">
         <v>120</v>
       </c>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B132" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
-      <c r="J132" s="75"/>
+      <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>4945</v>
-      </c>
-      <c r="B133" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G133" s="23">
-        <f>E133*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14">
-        <v>8</v>
-      </c>
-      <c r="I133" s="72">
-        <v>120</v>
-      </c>
-      <c r="J133" s="39"/>
+        <v/>
+      </c>
+      <c r="B133" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="75"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B134" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="74"/>
-      <c r="H134" s="74"/>
-      <c r="I134" s="74"/>
-      <c r="J134" s="75"/>
-    </row>
-    <row r="135" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4945</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="23">
+        <f>E134*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="14">
+        <v>8</v>
+      </c>
+      <c r="I134" s="72">
+        <v>120</v>
+      </c>
+      <c r="J134" s="39"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>4956</v>
-      </c>
-      <c r="B135" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E135" s="84"/>
-      <c r="F135" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G135" s="85">
-        <f>E135*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H135" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I135" s="91">
-        <v>120</v>
-      </c>
-      <c r="J135" s="86"/>
-      <c r="K135" s="87"/>
-    </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B135" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="75"/>
+    </row>
+    <row r="136" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>1762</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C136" s="33" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B136" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="23">
+      <c r="D136" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E136" s="84"/>
+      <c r="F136" s="85">
         <v>0.42</v>
       </c>
-      <c r="G136" s="23">
+      <c r="G136" s="85">
         <f>E136*0.42</f>
         <v>0</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H136" s="86">
         <v>4.2</v>
       </c>
-      <c r="I136" s="72">
+      <c r="I136" s="91">
         <v>120</v>
       </c>
-      <c r="J136" s="39"/>
-    </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J136" s="86"/>
+      <c r="K136" s="87"/>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
@@ -5294,22 +5292,35 @@
       </c>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B138" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="75"/>
+        <v>1764</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G138" s="23">
+        <f>E138*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I138" s="72">
+        <v>120</v>
+      </c>
+      <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="94" t="str">
@@ -5317,7 +5328,7 @@
         <v/>
       </c>
       <c r="B139" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C139" s="74"/>
       <c r="D139" s="74"/>
@@ -5331,130 +5342,137 @@
     <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>6004</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="23">
-        <v>1</v>
-      </c>
-      <c r="G140" s="23">
-        <f>E140*1</f>
-        <v>0</v>
-      </c>
-      <c r="H140" s="14">
-        <v>8</v>
-      </c>
-      <c r="I140" s="72">
-        <v>120</v>
-      </c>
-      <c r="J140" s="39"/>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B140" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="75"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>5417</v>
+        <v>6004</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>23</v>
+        <v>152</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="D141" s="68" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="23">
         <f>E141*1</f>
         <v>0</v>
       </c>
       <c r="H141" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I141" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>6019</v>
+        <v>5417</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="69" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" s="23">
         <f>E142*1</f>
         <v>0</v>
       </c>
       <c r="H142" s="14">
+        <v>6</v>
+      </c>
+      <c r="I142" s="72">
+        <v>90</v>
+      </c>
+      <c r="J142" s="39"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23">
+        <v>1</v>
+      </c>
+      <c r="G143" s="23">
+        <f>E143*1</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="14">
         <v>12</v>
       </c>
-      <c r="I142" s="72">
+      <c r="I143" s="72">
         <v>120</v>
       </c>
-      <c r="J142" s="39"/>
-    </row>
-    <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="77"/>
-      <c r="B143" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="17">
-        <f>SUM(E5:E142)</f>
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="77"/>
+      <c r="B144" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="17">
+        <f>SUM(E5:E143)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="17">
-        <f>SUM(F10:F142)</f>
-        <v>39.534166666666671</v>
-      </c>
-      <c r="G143" s="17">
-        <f>SUM(G11:G142)</f>
+      <c r="F144" s="17">
+        <f>SUM(F10:F143)</f>
+        <v>37.075833333333343</v>
+      </c>
+      <c r="G144" s="17">
+        <f>SUM(G11:G143)</f>
         <v>0</v>
       </c>
-      <c r="H143" s="17">
-        <f>SUM(H10:H139)</f>
-        <v>154.69999999999993</v>
-      </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="53"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="52"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="21"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="17">
+        <f>SUM(H10:H140)</f>
+        <v>144.24999999999994</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B145" s="53"/>
       <c r="C145" s="18"/>
       <c r="D145" s="52"/>
@@ -20684,17 +20702,27 @@
       <c r="I1667" s="20"/>
       <c r="J1667" s="21"/>
     </row>
+    <row r="1668" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1668" s="53"/>
+      <c r="C1668" s="18"/>
+      <c r="D1668" s="52"/>
+      <c r="F1668" s="19"/>
+      <c r="G1668" s="19"/>
+      <c r="H1668" s="20"/>
+      <c r="I1668" s="20"/>
+      <c r="J1668" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B136" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B137" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D140:D142" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D141:D143" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
@@ -20720,24 +20748,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -20748,13 +20776,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -20765,13 +20793,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -20781,17 +20809,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -20802,78 +20830,78 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -20883,53 +20911,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -20955,252 +20983,252 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="61"/>
     </row>

--- a/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 01,11,24ц-выезд 03,11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4FDFE-C1B6-4C4A-83B2-C0049B47611D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DBCCD3-00FD-4988-BA4D-220119F52275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$145</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -190,6 +190,12 @@
     <t>С ГОВЯДИНОЙ СН сос п/о мгс 1кг 6шт.</t>
   </si>
   <si>
+    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ Папа может сос п/о мгс 1.5*4_А</t>
+  </si>
+  <si>
     <t>МОЛОЧНЫЕ Коровино сос п/о мгс 1.5*6</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 2*2_45с</t>
   </si>
   <si>
+    <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 1.5*4</t>
+  </si>
+  <si>
     <t>СЛИВОЧНЫЕ сос ц/о мгс 1*4</t>
   </si>
   <si>
@@ -256,12 +265,6 @@
     <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
   </si>
   <si>
-    <t>СОЧНЫЕ сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ сос п/о мгс 1*6</t>
-  </si>
-  <si>
     <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
   </si>
   <si>
@@ -275,6 +278,12 @@
   </si>
   <si>
     <t>ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
   </si>
   <si>
     <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
@@ -514,6 +523,12 @@
     <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
   </si>
   <si>
+    <t>СОЧНЫЕ сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ сос п/о мгс 1*6</t>
+  </si>
+  <si>
     <t>САЛЯМИ ФИНСКАЯ п/к в/у</t>
   </si>
   <si>
@@ -667,19 +682,7 @@
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
   </si>
   <si>
-    <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 1.5*4</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ Папа может сос п/о мгс 1.5*4_А</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
+    <t>ПРЕСИЖН с/к дек.спец.мгс</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1858,11 +1861,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1668"/>
+  <dimension ref="A1:M1669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
+      <pane ySplit="9" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D143,4)</f>
+        <f>RIGHT(D11:D144,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2038,7 +2041,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D144,4)</f>
+        <f>RIGHT(D12:D145,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2063,7 +2066,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D144,4)</f>
+        <f>RIGHT(D13:D145,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2087,7 +2090,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D145,4)</f>
+        <f>RIGHT(D14:D146,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2111,7 +2114,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D146,4)</f>
+        <f>RIGHT(D15:D147,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2135,7 +2138,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D146,4)</f>
+        <f>RIGHT(D16:D147,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2165,7 +2168,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D147,4)</f>
+        <f>RIGHT(D17:D148,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2191,7 +2194,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D148,4)</f>
+        <f>RIGHT(D18:D149,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2217,7 +2220,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D149,4)</f>
+        <f>RIGHT(D19:D150,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2241,7 +2244,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D150,4)</f>
+        <f>RIGHT(D20:D151,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2271,7 +2274,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D151,4)</f>
+        <f>RIGHT(D21:D152,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2301,7 +2304,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D152,4)</f>
+        <f>RIGHT(D22:D153,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2331,7 +2334,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D153,4)</f>
+        <f>RIGHT(D23:D154,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2361,7 +2364,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D157,4)</f>
+        <f>RIGHT(D24:D158,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2385,7 +2388,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D157,4)</f>
+        <f>RIGHT(D25:D158,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2409,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D158,4)</f>
+        <f>RIGHT(D26:D159,4)</f>
         <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2439,7 +2442,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D161,4)</f>
+        <f>RIGHT(D27:D162,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2469,7 +2472,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D162,4)</f>
+        <f>RIGHT(D28:D163,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2499,7 +2502,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D163,4)</f>
+        <f>RIGHT(D29:D164,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2525,7 +2528,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D164,4)</f>
+        <f>RIGHT(D30:D165,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2549,7 +2552,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D164,4)</f>
+        <f>RIGHT(D31:D165,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2579,7 +2582,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D165,4)</f>
+        <f>RIGHT(D32:D166,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2603,7 +2606,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D165,4)</f>
+        <f>RIGHT(D33:D166,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2631,7 +2634,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D167,4)</f>
+        <f>RIGHT(D34:D168,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2659,7 +2662,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D165,4)</f>
+        <f>RIGHT(D35:D166,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2689,7 +2692,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D166,4)</f>
+        <f>RIGHT(D36:D167,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2706,7 +2709,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D169,4)</f>
+        <f>RIGHT(D37:D170,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2731,7 +2734,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D170,4)</f>
+        <f>RIGHT(D38:D171,4)</f>
         <v>6869</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2756,11 +2759,11 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D171,4)</f>
+        <f>RIGHT(D39:D172,4)</f>
         <v>6948</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>23</v>
@@ -2781,11 +2784,11 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D172,4)</f>
+        <f>RIGHT(D40:D173,4)</f>
         <v>6955</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
@@ -2806,11 +2809,11 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D170,4)</f>
+        <f>RIGHT(D41:D171,4)</f>
         <v>6253</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
@@ -2831,11 +2834,11 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D169,4)</f>
+        <f>RIGHT(D42:D170,4)</f>
         <v>6602</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>26</v>
@@ -2856,11 +2859,11 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D172,4)</f>
+        <f>RIGHT(D43:D173,4)</f>
         <v>6768</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>26</v>
@@ -2881,11 +2884,11 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D173,4)</f>
+        <f>RIGHT(D44:D174,4)</f>
         <v>6770</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>26</v>
@@ -2906,11 +2909,11 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D176,4)</f>
+        <f>RIGHT(D45:D177,4)</f>
         <v>6829</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>23</v>
@@ -2930,11 +2933,11 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D181,4)</f>
+        <f>RIGHT(D46:D182,4)</f>
         <v>6854</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>26</v>
@@ -2954,11 +2957,11 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D182,4)</f>
+        <f>RIGHT(D47:D183,4)</f>
         <v>6852</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
@@ -2978,11 +2981,11 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D183,4)</f>
+        <f>RIGHT(D48:D184,4)</f>
         <v>6759</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>26</v>
@@ -3002,14 +3005,14 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D184,4)</f>
+        <f>RIGHT(D49:D185,4)</f>
         <v>6901</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D49" s="28">
         <v>1001025526901</v>
@@ -3028,11 +3031,11 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D183,4)</f>
+        <f>RIGHT(D50:D184,4)</f>
         <v>6303</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>23</v>
@@ -3059,11 +3062,11 @@
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D184,4)</f>
+        <f>RIGHT(D51:D185,4)</f>
         <v>6777</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>26</v>
@@ -3084,11 +3087,11 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D184,4)</f>
+        <f>RIGHT(D52:D185,4)</f>
         <v>6726</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>26</v>
@@ -3114,11 +3117,11 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D185,4)</f>
+        <f>RIGHT(D53:D186,4)</f>
         <v>6762</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>26</v>
@@ -3140,11 +3143,11 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D185,4)</f>
+        <f>RIGHT(D54:D186,4)</f>
         <v>5820</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>23</v>
@@ -3164,13 +3167,13 @@
       </c>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D186,4)</f>
+        <f>RIGHT(D55:D187,4)</f>
         <v>6951</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>23</v>
@@ -3187,15 +3190,14 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="82"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D187,4)</f>
+        <f>RIGHT(D56:D188,4)</f>
         <v>6764</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>23</v>
@@ -3215,11 +3217,11 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D189,4)</f>
+        <f>RIGHT(D57:D190,4)</f>
         <v>6761</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>23</v>
@@ -3239,11 +3241,11 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D190,4)</f>
+        <f>RIGHT(D58:D191,4)</f>
         <v>6767</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>23</v>
@@ -3263,11 +3265,11 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D190,4)</f>
+        <f>RIGHT(D59:D191,4)</f>
         <v>6765</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
@@ -3287,11 +3289,11 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D191,4)</f>
+        <f>RIGHT(D60:D192,4)</f>
         <v>6909</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
@@ -3313,11 +3315,11 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D190,4)</f>
+        <f>RIGHT(D61:D191,4)</f>
         <v>6722</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>26</v>
@@ -3343,11 +3345,11 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D191,4)</f>
+        <f>RIGHT(D62:D192,4)</f>
         <v>6837</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>26</v>
@@ -3369,11 +3371,11 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D193,4)</f>
+        <f>RIGHT(D63:D194,4)</f>
         <v>6661</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
@@ -3394,11 +3396,11 @@
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D194,4)</f>
+        <f>RIGHT(D64:D195,4)</f>
         <v>6713</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>26</v>
@@ -3417,13 +3419,13 @@
       <c r="J64" s="39"/>
       <c r="K64" s="82"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D190,4)</f>
+        <f>RIGHT(D65:D191,4)</f>
         <v/>
       </c>
       <c r="B65" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65" s="74"/>
       <c r="D65" s="74"/>
@@ -3434,13 +3436,13 @@
       <c r="I65" s="74"/>
       <c r="J65" s="75"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D191,4)</f>
+        <f>RIGHT(D66:D192,4)</f>
         <v>5698</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>23</v>
@@ -3464,13 +3466,13 @@
       </c>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D194,4)</f>
+        <f>RIGHT(D67:D195,4)</f>
         <v>6528</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>26</v>
@@ -3488,13 +3490,13 @@
       <c r="I67" s="14"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D195,4)</f>
+        <f>RIGHT(D68:D196,4)</f>
         <v>6653</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
@@ -3513,15 +3515,14 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="39"/>
-      <c r="K68" s="82"/>
-    </row>
-    <row r="69" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D195,4)</f>
+        <f>RIGHT(D69:D196,4)</f>
         <v>6609</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
@@ -3540,15 +3541,14 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-      <c r="K69" s="82"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D196,4)</f>
+        <f>RIGHT(D70:D197,4)</f>
         <v>6527</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" s="30" t="s">
         <v>23</v>
@@ -3572,13 +3572,13 @@
       </c>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D197,4)</f>
+        <f>RIGHT(D71:D198,4)</f>
         <v/>
       </c>
       <c r="B71" s="74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C71" s="74"/>
       <c r="D71" s="74"/>
@@ -3589,13 +3589,13 @@
       <c r="I71" s="74"/>
       <c r="J71" s="75"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D198,4)</f>
+        <f>RIGHT(D72:D199,4)</f>
         <v>6666</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
@@ -3619,13 +3619,13 @@
       </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D199,4)</f>
+        <f>RIGHT(D73:D200,4)</f>
         <v>6785</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>26</v>
@@ -3643,13 +3643,13 @@
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D200,4)</f>
+        <f>RIGHT(D74:D201,4)</f>
         <v>6415</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>26</v>
@@ -3669,13 +3669,13 @@
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D200,4)</f>
+        <f>RIGHT(D75:D201,4)</f>
         <v>6786</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>23</v>
@@ -3693,13 +3693,13 @@
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D201,4)</f>
+        <f>RIGHT(D76:D202,4)</f>
         <v>4903</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>23</v>
@@ -3717,13 +3717,13 @@
       <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D201,4)</f>
+        <f>RIGHT(D77:D202,4)</f>
         <v>6794</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>23</v>
@@ -3743,13 +3743,13 @@
       </c>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D199,4)</f>
+        <f>RIGHT(D78:D200,4)</f>
         <v>6773</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>26</v>
@@ -3773,13 +3773,13 @@
       </c>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D202,4)</f>
+        <f>RIGHT(D79:D203,4)</f>
         <v/>
       </c>
       <c r="B79" s="74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C79" s="74"/>
       <c r="D79" s="74"/>
@@ -3790,13 +3790,13 @@
       <c r="I79" s="74"/>
       <c r="J79" s="75"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D203,4)</f>
+        <f>RIGHT(D80:D204,4)</f>
         <v>6683</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
@@ -3822,11 +3822,11 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D205,4)</f>
+        <f>RIGHT(D81:D206,4)</f>
         <v>6793</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
@@ -3846,11 +3846,11 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D206,4)</f>
+        <f>RIGHT(D82:D207,4)</f>
         <v>6795</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
@@ -3870,11 +3870,11 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D206,4)</f>
+        <f>RIGHT(D83:D207,4)</f>
         <v>6807</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
@@ -3894,11 +3894,11 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D206,4)</f>
+        <f>RIGHT(D84:D207,4)</f>
         <v>6684</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>26</v>
@@ -3924,11 +3924,11 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D208,4)</f>
+        <f>RIGHT(D85:D209,4)</f>
         <v>6787</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>26</v>
@@ -3948,11 +3948,11 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D209,4)</f>
+        <f>RIGHT(D86:D210,4)</f>
         <v>6788</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>23</v>
@@ -3972,11 +3972,11 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D210,4)</f>
+        <f>RIGHT(D87:D211,4)</f>
         <v>6790</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>23</v>
@@ -3996,11 +3996,11 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D209,4)</f>
+        <f>RIGHT(D88:D210,4)</f>
         <v>6689</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
@@ -4026,11 +4026,11 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D210,4)</f>
+        <f>RIGHT(D89:D211,4)</f>
         <v>6791</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
@@ -4050,11 +4050,11 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D211,4)</f>
+        <f>RIGHT(D90:D212,4)</f>
         <v>5341</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>23</v>
@@ -4080,11 +4080,11 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D212,4)</f>
+        <f>RIGHT(D91:D213,4)</f>
         <v>6459</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
@@ -4106,11 +4106,11 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D213,4)</f>
+        <f>RIGHT(D92:D214,4)</f>
         <v>6586</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
@@ -4130,11 +4130,11 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D211,4)</f>
+        <f>RIGHT(D93:D212,4)</f>
         <v>6228</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
@@ -4154,11 +4154,11 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D211,4)</f>
+        <f>RIGHT(D94:D212,4)</f>
         <v>5544</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C94" s="30" t="s">
         <v>23</v>
@@ -4184,11 +4184,11 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="94" t="str">
-        <f t="shared" ref="A95:A100" si="0">RIGHT(D95:D213,4)</f>
+        <f>RIGHT(D95:D214,4)</f>
         <v>6697</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C95" s="36" t="s">
         <v>26</v>
@@ -4214,11 +4214,11 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D96:D215,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C96" s="74"/>
       <c r="D96" s="74"/>
@@ -4229,13 +4229,13 @@
       <c r="I96" s="74"/>
       <c r="J96" s="75"/>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D97:D216,4)</f>
         <v>5706</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
@@ -4259,13 +4259,13 @@
       </c>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D98:D217,4)</f>
         <v>6454</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
@@ -4289,13 +4289,13 @@
       </c>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D99:D218,4)</f>
         <v>6222</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
@@ -4313,13 +4313,13 @@
       <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D100:D219,4)</f>
         <v>5931</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>26</v>
@@ -4343,13 +4343,13 @@
       </c>
       <c r="J100" s="39"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D220,4)</f>
+        <f>RIGHT(D101:D221,4)</f>
         <v>5708</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>23</v>
@@ -4373,13 +4373,13 @@
       </c>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D221,4)</f>
+        <f>RIGHT(D102:D222,4)</f>
         <v>6834</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
@@ -4397,13 +4397,13 @@
       <c r="I102" s="14"/>
       <c r="J102" s="39"/>
     </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D222,4)</f>
+        <f>RIGHT(D103:D223,4)</f>
         <v>6448</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
@@ -4423,13 +4423,13 @@
       <c r="I103" s="14"/>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D223,4)</f>
+        <f>RIGHT(D104:D224,4)</f>
         <v>6221</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
@@ -4449,13 +4449,13 @@
       <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D223,4)</f>
+        <f>RIGHT(D105:D224,4)</f>
         <v>5679</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
@@ -4475,13 +4475,13 @@
       <c r="I105" s="14"/>
       <c r="J105" s="39"/>
     </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D225,4)</f>
+        <f>RIGHT(D106:D226,4)</f>
         <v>4993</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D226,4)</f>
+        <f>RIGHT(D107:D227,4)</f>
         <v>3684</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
@@ -4531,13 +4531,13 @@
       <c r="I107" s="14"/>
       <c r="J107" s="39"/>
     </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D226,4)</f>
+        <f>RIGHT(D108:D227,4)</f>
         <v>5682</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
@@ -4561,13 +4561,13 @@
       </c>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D229,4)</f>
+        <f>RIGHT(D109:D230,4)</f>
         <v>4117</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C109" s="30" t="s">
         <v>23</v>
@@ -4591,127 +4591,126 @@
       </c>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D230,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D110:D231,4)</f>
+        <v>3680</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>26</v>
+        <v>216</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D110" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F110" s="23"/>
       <c r="G110" s="23">
-        <f>E110*0.25</f>
+        <f>E110</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14">
-        <v>2</v>
-      </c>
-      <c r="I110" s="14">
-        <v>120</v>
-      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
       <c r="J110" s="39"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K110" s="82"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
         <f>RIGHT(D111:D231,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G111" s="23">
-        <f>E111*0.1</f>
+        <f>E111*0.25</f>
         <v>0</v>
       </c>
       <c r="H111" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I111" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="str">
         <f>RIGHT(D112:D232,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G112" s="23">
+        <f>E112*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I112" s="14">
+        <v>60</v>
+      </c>
+      <c r="J112" s="39"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="94" t="str">
+        <f>RIGHT(D113:D233,4)</f>
         <v/>
       </c>
-      <c r="B112" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="75"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D236,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23">
-        <f>E113*1</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="39"/>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="75"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
         <f>RIGHT(D114:D237,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D114" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F114" s="23"/>
       <c r="G114" s="23">
-        <f>F114*E114</f>
+        <f>E114*1</f>
         <v>0</v>
       </c>
       <c r="H114" s="14"/>
@@ -4720,151 +4719,151 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D237,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D115:D238,4)</f>
+        <v>6495</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D115" s="80">
-        <v>1001095716866</v>
+        <v>1001092436495</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="23"/>
+      <c r="F115" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G115" s="23">
-        <f>E115*1</f>
+        <f>F115*E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D234,4)</f>
+        <f>RIGHT(D116:D238,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23">
+        <f>E116*1</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="94" t="str">
+        <f>RIGHT(D117:D235,4)</f>
         <v>3215</v>
       </c>
-      <c r="B116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="37" t="s">
+      <c r="B117" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="51">
+      <c r="D117" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23">
+      <c r="E117" s="24"/>
+      <c r="F117" s="23">
         <v>0.4</v>
       </c>
-      <c r="G116" s="23">
-        <f>E116*0.4</f>
+      <c r="G117" s="23">
+        <f>E117*0.4</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H117" s="14">
         <v>3.2</v>
       </c>
-      <c r="I116" s="14">
+      <c r="I117" s="14">
         <v>60</v>
       </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D237,4)</f>
+      <c r="J117" s="39"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="94" t="str">
+        <f>RIGHT(D118:D238,4)</f>
         <v/>
       </c>
-      <c r="B117" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="75"/>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D240,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B118" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G118" s="23">
-        <f>E118*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I118" s="14">
-        <v>30</v>
-      </c>
-      <c r="J118" s="39"/>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="75"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
         <f>RIGHT(D119:D241,4)</f>
-        <v>4691</v>
+        <v>6206</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001083424691</v>
+        <v>1001084216206</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
         <v>0.3</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" ref="G119:G125" si="1">F119*E119</f>
+        <f>E119*0.3</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="93"/>
+      <c r="H119" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I119" s="14">
+        <v>30</v>
+      </c>
+      <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
         <f>RIGHT(D120:D242,4)</f>
-        <v>6200</v>
+        <v>4691</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
         <v>0.3</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G120:G126" si="0">F120*E120</f>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4874,23 +4873,23 @@
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
         <f>RIGHT(D121:D243,4)</f>
-        <v>6842</v>
+        <v>6200</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C121" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001080216842</v>
+        <v>1001085636200</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
         <v>0.3</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4899,24 +4898,24 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D243,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D122:D244,4)</f>
+        <v>6842</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
         <v>0.3</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4925,24 +4924,24 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D241,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D123:D244,4)</f>
+        <v>6492</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C123" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -4952,23 +4951,23 @@
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
         <f>RIGHT(D124:D242,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C124" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -4978,77 +4977,86 @@
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D243,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C125" s="33" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
-      <c r="J125" s="39"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J125" s="93"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D241,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C126" s="35" t="s">
+        <f>RIGHT(D126:D244,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001223296919</v>
+        <v>1001223296921</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="23"/>
+      <c r="F126" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G126" s="23">
-        <f>E126*0.18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
-      <c r="J126" s="93"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
         <f>RIGHT(D127:D242,4)</f>
-        <v/>
-      </c>
-      <c r="B127" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="74"/>
-      <c r="H127" s="74"/>
-      <c r="I127" s="74"/>
-      <c r="J127" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23">
+        <f>E127*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="93"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="94" t="str">
-        <f>RIGHT(D128:D245,4)</f>
+        <f>RIGHT(D128:D243,4)</f>
         <v/>
       </c>
       <c r="B128" s="74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C128" s="74"/>
       <c r="D128" s="74"/>
@@ -5059,73 +5067,66 @@
       <c r="I128" s="74"/>
       <c r="J128" s="75"/>
     </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="94" t="str">
         <f>RIGHT(D129:D246,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B129" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G129" s="23">
-        <f>E129*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="14">
-        <v>8</v>
-      </c>
-      <c r="I129" s="72">
-        <v>120</v>
-      </c>
-      <c r="J129" s="39"/>
-    </row>
-    <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B129" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="75"/>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
         <f>RIGHT(D130:D247,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E130" s="24"/>
-      <c r="F130" s="23"/>
+      <c r="F130" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G130" s="23">
-        <f>E130*0.45</f>
+        <f>E130*0.5</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="72"/>
+      <c r="H130" s="14">
+        <v>8</v>
+      </c>
+      <c r="I130" s="72">
+        <v>120</v>
+      </c>
       <c r="J130" s="39"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
         <f>RIGHT(D131:D248,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23"/>
@@ -5137,174 +5138,168 @@
       <c r="I131" s="72"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="str">
-        <f t="shared" ref="A132:A143" si="2">RIGHT(D132:D247,4)</f>
+        <f>RIGHT(D132:D249,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23">
+        <f>E132*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="str">
+        <f t="shared" ref="A133:A144" si="1">RIGHT(D133:D248,4)</f>
         <v>6313</v>
       </c>
-      <c r="B132" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C132" s="36" t="s">
+      <c r="B133" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="28">
+      <c r="D133" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="23">
+      <c r="E133" s="24"/>
+      <c r="F133" s="23">
         <v>0.9</v>
       </c>
-      <c r="G132" s="23">
-        <f>E132*0.9</f>
+      <c r="G133" s="23">
+        <f>E133*0.9</f>
         <v>0</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H133" s="14">
         <v>9</v>
       </c>
-      <c r="I132" s="72">
+      <c r="I133" s="72">
         <v>120</v>
       </c>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B133" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="75"/>
+      <c r="J133" s="39"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>4945</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G134" s="23">
-        <f>E134*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="14">
-        <v>8</v>
-      </c>
-      <c r="I134" s="72">
-        <v>120</v>
-      </c>
-      <c r="J134" s="39"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B134" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>4945</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G135" s="23">
+        <f>E135*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <v>8</v>
+      </c>
+      <c r="I135" s="72">
+        <v>120</v>
+      </c>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="94" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B135" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="75"/>
-    </row>
-    <row r="136" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="B136" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="75"/>
+    </row>
+    <row r="137" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="94" t="str">
+        <f t="shared" si="1"/>
         <v>4956</v>
       </c>
-      <c r="B136" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C136" s="90" t="s">
+      <c r="B137" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="83">
+      <c r="D137" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E136" s="84"/>
-      <c r="F136" s="85">
+      <c r="E137" s="84"/>
+      <c r="F137" s="85">
         <v>0.42</v>
       </c>
-      <c r="G136" s="85">
-        <f>E136*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I136" s="91">
-        <v>120</v>
-      </c>
-      <c r="J136" s="86"/>
-      <c r="K136" s="87"/>
-    </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>1762</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G137" s="23">
+      <c r="G137" s="85">
         <f>E137*0.42</f>
         <v>0</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H137" s="86">
         <v>4.2</v>
       </c>
-      <c r="I137" s="72">
+      <c r="I137" s="91">
         <v>120</v>
       </c>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J137" s="86"/>
+      <c r="K137" s="87"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>1764</v>
+        <f t="shared" si="1"/>
+        <v>1762</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
@@ -5322,30 +5317,43 @@
       </c>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B139" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="75"/>
+        <f t="shared" si="1"/>
+        <v>1764</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G139" s="23">
+        <f>E139*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I139" s="72">
+        <v>120</v>
+      </c>
+      <c r="J139" s="39"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B140" s="74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C140" s="74"/>
       <c r="D140" s="74"/>
@@ -5358,131 +5366,138 @@
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B141" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="75"/>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="94" t="str">
+        <f t="shared" si="1"/>
         <v>6004</v>
       </c>
-      <c r="B141" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C141" s="36" t="s">
+      <c r="B142" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D141" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="23">
-        <v>1</v>
-      </c>
-      <c r="G141" s="23">
-        <f>E141*1</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="14">
-        <v>8</v>
-      </c>
-      <c r="I141" s="72">
-        <v>120</v>
-      </c>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>5417</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>23</v>
-      </c>
       <c r="D142" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="23">
         <f>E142*1</f>
         <v>0</v>
       </c>
       <c r="H142" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I142" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>6019</v>
+        <f t="shared" si="1"/>
+        <v>5417</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="69" t="s">
         <v>157</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="68" t="s">
+        <v>158</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" s="23">
         <f>E143*1</f>
         <v>0</v>
       </c>
       <c r="H143" s="14">
+        <v>6</v>
+      </c>
+      <c r="I143" s="72">
+        <v>90</v>
+      </c>
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6019</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23">
+        <v>1</v>
+      </c>
+      <c r="G144" s="23">
+        <f>E144*1</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="14">
         <v>12</v>
       </c>
-      <c r="I143" s="72">
+      <c r="I144" s="72">
         <v>120</v>
       </c>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="77"/>
-      <c r="B144" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="17">
-        <f>SUM(E5:E143)</f>
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="77"/>
+      <c r="B145" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="17">
+        <f>SUM(E5:E144)</f>
         <v>0</v>
       </c>
-      <c r="F144" s="17">
-        <f>SUM(F10:F143)</f>
+      <c r="F145" s="17">
+        <f>SUM(F10:F144)</f>
         <v>37.075833333333343</v>
       </c>
-      <c r="G144" s="17">
-        <f>SUM(G11:G143)</f>
+      <c r="G145" s="17">
+        <f>SUM(G11:G144)</f>
         <v>0</v>
       </c>
-      <c r="H144" s="17">
-        <f>SUM(H10:H140)</f>
+      <c r="H145" s="17">
+        <f>SUM(H10:H141)</f>
         <v>144.24999999999994</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-    </row>
-    <row r="145" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="53"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="52"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="21"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53"/>
       <c r="C146" s="18"/>
       <c r="D146" s="52"/>
@@ -5492,7 +5507,7 @@
       <c r="I146" s="20"/>
       <c r="J146" s="21"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" s="53"/>
       <c r="C147" s="18"/>
       <c r="D147" s="52"/>
@@ -5502,7 +5517,7 @@
       <c r="I147" s="20"/>
       <c r="J147" s="21"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" s="53"/>
       <c r="C148" s="18"/>
       <c r="D148" s="52"/>
@@ -5512,7 +5527,7 @@
       <c r="I148" s="20"/>
       <c r="J148" s="21"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" s="53"/>
       <c r="C149" s="18"/>
       <c r="D149" s="52"/>
@@ -5522,7 +5537,7 @@
       <c r="I149" s="20"/>
       <c r="J149" s="21"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" s="53"/>
       <c r="C150" s="18"/>
       <c r="D150" s="52"/>
@@ -5532,7 +5547,7 @@
       <c r="I150" s="20"/>
       <c r="J150" s="21"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" s="53"/>
       <c r="C151" s="18"/>
       <c r="D151" s="52"/>
@@ -5542,7 +5557,7 @@
       <c r="I151" s="20"/>
       <c r="J151" s="21"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" s="53"/>
       <c r="C152" s="18"/>
       <c r="D152" s="52"/>
@@ -5552,7 +5567,7 @@
       <c r="I152" s="20"/>
       <c r="J152" s="21"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B153" s="53"/>
       <c r="C153" s="18"/>
       <c r="D153" s="52"/>
@@ -5562,7 +5577,7 @@
       <c r="I153" s="20"/>
       <c r="J153" s="21"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B154" s="53"/>
       <c r="C154" s="18"/>
       <c r="D154" s="52"/>
@@ -5572,7 +5587,7 @@
       <c r="I154" s="20"/>
       <c r="J154" s="21"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B155" s="53"/>
       <c r="C155" s="18"/>
       <c r="D155" s="52"/>
@@ -5582,7 +5597,7 @@
       <c r="I155" s="20"/>
       <c r="J155" s="21"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" s="53"/>
       <c r="C156" s="18"/>
       <c r="D156" s="52"/>
@@ -5592,7 +5607,7 @@
       <c r="I156" s="20"/>
       <c r="J156" s="21"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" s="53"/>
       <c r="C157" s="18"/>
       <c r="D157" s="52"/>
@@ -5602,7 +5617,7 @@
       <c r="I157" s="20"/>
       <c r="J157" s="21"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" s="53"/>
       <c r="C158" s="18"/>
       <c r="D158" s="52"/>
@@ -5612,7 +5627,7 @@
       <c r="I158" s="20"/>
       <c r="J158" s="21"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" s="53"/>
       <c r="C159" s="18"/>
       <c r="D159" s="52"/>
@@ -5622,7 +5637,7 @@
       <c r="I159" s="20"/>
       <c r="J159" s="21"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="53"/>
       <c r="C160" s="18"/>
       <c r="D160" s="52"/>
@@ -20712,17 +20727,27 @@
       <c r="I1668" s="20"/>
       <c r="J1668" s="21"/>
     </row>
+    <row r="1669" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1669" s="53"/>
+      <c r="C1669" s="18"/>
+      <c r="D1669" s="52"/>
+      <c r="F1669" s="19"/>
+      <c r="G1669" s="19"/>
+      <c r="H1669" s="20"/>
+      <c r="I1669" s="20"/>
+      <c r="J1669" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B137" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B138" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D141:D143" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D142:D144" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
@@ -20748,24 +20773,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -20776,13 +20801,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -20793,13 +20818,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -20809,17 +20834,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -20830,78 +20855,78 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -20911,53 +20936,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -20983,252 +21008,252 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C86" s="61"/>
     </row>
